--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_7.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999476556582959</v>
+        <v>0.9999971801679928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991388800779266</v>
+        <v>0.9990803744147095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999586045182249</v>
+        <v>0.9999951669638319</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997675238357185</v>
+        <v>0.9999877329392731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998340434694499</v>
+        <v>0.9999929678097181</v>
       </c>
       <c r="G2" t="n">
-        <v>4.886114532974861e-05</v>
+        <v>2.632189402378967e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008038176484594845</v>
+        <v>0.000858430116970837</v>
       </c>
       <c r="I2" t="n">
-        <v>1.639863522055147e-05</v>
+        <v>5.612590156009378e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002883940967951305</v>
+        <v>1.070876498996161e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000152396366007841</v>
+        <v>8.160677572985492e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000335712638747252</v>
+        <v>0.0001231274304452397</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006990074772829587</v>
+        <v>0.001622402355267942</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000073897894171</v>
+        <v>1.000003980939304</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007287656727358507</v>
+        <v>0.001691471382367565</v>
       </c>
       <c r="P2" t="n">
-        <v>101.853056102717</v>
+        <v>107.6953891714002</v>
       </c>
       <c r="Q2" t="n">
-        <v>151.8269649223132</v>
+        <v>157.6692979909965</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999486750871718</v>
+        <v>0.9999972064317215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991382719698816</v>
+        <v>0.999079749525244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999591254329896</v>
+        <v>0.9999953920773622</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997722712956681</v>
+        <v>0.9999876435350973</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998373625341279</v>
+        <v>0.9999930468190248</v>
       </c>
       <c r="G3" t="n">
-        <v>4.790955322189615e-05</v>
+        <v>2.607673364532607e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008043852906267022</v>
+        <v>0.0008590134238574219</v>
       </c>
       <c r="I3" t="n">
-        <v>1.619227716306592e-05</v>
+        <v>5.351166500148109e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002825047213037202</v>
+        <v>1.078681207302054e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001493484992333931</v>
+        <v>8.068989286584324e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003337981398876507</v>
+        <v>0.0001232682309477757</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006921672718490536</v>
+        <v>0.001614829205994432</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000072458700463</v>
+        <v>1.000003943861099</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007216342655954468</v>
+        <v>0.001683575828450901</v>
       </c>
       <c r="P3" t="n">
-        <v>101.8923912649499</v>
+        <v>107.7141043308086</v>
       </c>
       <c r="Q3" t="n">
-        <v>151.8663000845461</v>
+        <v>157.6880131504049</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999949793531773</v>
+        <v>0.9999972315245758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991375745912241</v>
+        <v>0.9990790478026901</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999596947193281</v>
+        <v>0.9999956316103896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999777488745903</v>
+        <v>0.9999875348229396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998410094906238</v>
+        <v>0.9999931257809569</v>
       </c>
       <c r="G4" t="n">
-        <v>4.686553428060988e-05</v>
+        <v>2.584250286539176e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008050362629920205</v>
+        <v>0.0008596684510594306</v>
       </c>
       <c r="I4" t="n">
-        <v>1.596675692267235e-05</v>
+        <v>5.072997526238912e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002760323078728689</v>
+        <v>1.088171442780209e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001459995323977706</v>
+        <v>7.977355977020502e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000331680506446113</v>
+        <v>0.0001234011578763117</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006845840655508268</v>
+        <v>0.001607560352378465</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00007087971985</v>
+        <v>1.000003908435893</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007137282265057036</v>
+        <v>0.001675997524687902</v>
       </c>
       <c r="P4" t="n">
-        <v>101.9364560588247</v>
+        <v>107.7321502332375</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.910364878421</v>
+        <v>157.7060590528338</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999510140776063</v>
+        <v>0.9999972538623979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991367798809221</v>
+        <v>0.9990782734218268</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999603153214534</v>
+        <v>0.9999958831150686</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997832034185333</v>
+        <v>0.9999873999372888</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998450033681144</v>
+        <v>0.9999932008884277</v>
       </c>
       <c r="G5" t="n">
-        <v>4.572620832102254e-05</v>
+        <v>2.563398910034726e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000805778090175216</v>
+        <v>0.0008603913016039528</v>
       </c>
       <c r="I5" t="n">
-        <v>1.572090816254602e-05</v>
+        <v>4.78092590998962e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002689430742011363</v>
+        <v>1.099946543326522e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001423319911818412</v>
+        <v>7.890195671627422e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003293074971680737</v>
+        <v>0.0001235286416059902</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006762115669006449</v>
+        <v>0.001601061807062652</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00006915659632</v>
+        <v>1.000003876900144</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00704999293254522</v>
+        <v>0.001669222322844151</v>
       </c>
       <c r="P5" t="n">
-        <v>101.9856778764154</v>
+        <v>107.7483529617075</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.9595866960116</v>
+        <v>157.7222617813037</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999523438746996</v>
+        <v>0.9999972730449094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991358644927657</v>
+        <v>0.9990773930172429</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999609674772308</v>
+        <v>0.999996145376528</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997894615944314</v>
+        <v>0.9999872416832118</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998493711646995</v>
+        <v>0.9999932725886296</v>
       </c>
       <c r="G6" t="n">
-        <v>4.44849011058373e-05</v>
+        <v>2.545492877637624e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008066325648383224</v>
+        <v>0.0008612131206378092</v>
       </c>
       <c r="I6" t="n">
-        <v>1.546255956405278e-05</v>
+        <v>4.47636247726929e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002611796073902862</v>
+        <v>1.113761635271522e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001383210834771695</v>
+        <v>7.806989414992257e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003266884164559837</v>
+        <v>0.0001236372844690181</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006669700226084925</v>
+        <v>0.001595460083373327</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000067279235718</v>
+        <v>1.000003849818951</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006953643172892186</v>
+        <v>0.001663382122180205</v>
       </c>
       <c r="P6" t="n">
-        <v>102.0407214547202</v>
+        <v>107.7623725232578</v>
       </c>
       <c r="Q6" t="n">
-        <v>152.0146302743164</v>
+        <v>157.736281342854</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999537924934788</v>
+        <v>0.9999972905173252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991348176056023</v>
+        <v>0.9990764117091609</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999616796489575</v>
+        <v>0.9999964246537991</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997963158293885</v>
+        <v>0.9999870636233029</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998541545187913</v>
+        <v>0.9999933453532799</v>
       </c>
       <c r="G7" t="n">
-        <v>4.313267906243322e-05</v>
+        <v>2.529183144367977e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008076097880523217</v>
+        <v>0.0008621291286577733</v>
       </c>
       <c r="I7" t="n">
-        <v>1.518043591527458e-05</v>
+        <v>4.152038634436961e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002526767103049282</v>
+        <v>1.129305715160763e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001339285731101014</v>
+        <v>7.722547893022294e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003237402900324172</v>
+        <v>0.0001236234539567357</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006567547416078031</v>
+        <v>0.001590340574961218</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000065234126853</v>
+        <v>1.000003825152011</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00684714150627783</v>
+        <v>0.001658044665696149</v>
       </c>
       <c r="P7" t="n">
-        <v>102.1024592664973</v>
+        <v>107.7752283503933</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.0763680860935</v>
+        <v>157.7491371699895</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999553658503618</v>
+        <v>0.9999972986249832</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991336042980332</v>
+        <v>0.9990753350649136</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999624255915507</v>
+        <v>0.9999967119932005</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998037874855361</v>
+        <v>0.9999868289794375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998593621985992</v>
+        <v>0.9999934008691592</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1664019474541e-05</v>
+        <v>2.521615001508012e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008087423574100415</v>
+        <v>0.0008631341288034115</v>
       </c>
       <c r="I8" t="n">
-        <v>1.488493408861635e-05</v>
+        <v>3.818352264312484e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002434078825397509</v>
+        <v>1.149789399617049e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001291464083141836</v>
+        <v>7.658123130241485e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003204492677746191</v>
+        <v>0.0001236082241518112</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006454767189801736</v>
+        <v>0.001587959382826907</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000063012917136</v>
+        <v>1.000003813705906</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0067295599922817</v>
+        <v>0.001655562101282933</v>
       </c>
       <c r="P8" t="n">
-        <v>102.1717452879188</v>
+        <v>107.7812219761969</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.145654107515</v>
+        <v>157.7551307957931</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999570664963569</v>
+        <v>0.9999972977343992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991322058654333</v>
+        <v>0.9990741121309799</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999963192879106</v>
+        <v>0.9999969991735733</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998119493949681</v>
+        <v>0.9999865553558178</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998650407188345</v>
+        <v>0.9999934416441716</v>
       </c>
       <c r="G9" t="n">
-        <v>4.007654108782637e-05</v>
+        <v>2.522446322654133e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008100477328579838</v>
+        <v>0.0008642756839500464</v>
       </c>
       <c r="I9" t="n">
-        <v>1.458097655054144e-05</v>
+        <v>3.484850573620546e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002332827735590128</v>
+        <v>1.173675896174217e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001239318750547771</v>
+        <v>7.610804767681357e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003168099572956423</v>
+        <v>0.0001243378458858386</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006330603532667827</v>
+        <v>0.001588221118942237</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000060612005143</v>
+        <v>1.000003814963201</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006600110431209398</v>
+        <v>0.001655834980046561</v>
       </c>
       <c r="P9" t="n">
-        <v>102.2494388102314</v>
+        <v>107.7805627287372</v>
       </c>
       <c r="Q9" t="n">
-        <v>152.2233476298276</v>
+        <v>157.7544715483334</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999588929431956</v>
+        <v>0.9999972857992262</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991305768180864</v>
+        <v>0.9990727278855447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999640027957727</v>
+        <v>0.9999972887387633</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998207736625723</v>
+        <v>0.9999862264749174</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998711758284812</v>
+        <v>0.9999934628287417</v>
       </c>
       <c r="G10" t="n">
-        <v>3.837163313567379e-05</v>
+        <v>2.533587282730416e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008115683770494244</v>
+        <v>0.0008655678163023655</v>
       </c>
       <c r="I10" t="n">
-        <v>1.426013168032915e-05</v>
+        <v>3.148579401929798e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002223359881393182</v>
+        <v>1.202386182615248e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001182980599098237</v>
+        <v>7.586220614041139e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003127288157416382</v>
+        <v>0.0001253087035137973</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006194484089548845</v>
+        <v>0.001591724625282406</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000058033491959</v>
+        <v>1.000003831812857</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006458196101590749</v>
+        <v>0.001659487637904889</v>
       </c>
       <c r="P10" t="n">
-        <v>102.3363841835683</v>
+        <v>107.7717487223621</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.3102930031645</v>
+        <v>157.7456575419583</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999608446232553</v>
+        <v>0.9999972569656272</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991286790414783</v>
+        <v>0.9990711940149384</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999648538911537</v>
+        <v>0.9999975667008186</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999830291804491</v>
+        <v>0.9999858311830611</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998777885024901</v>
+        <v>0.9999934532287506</v>
       </c>
       <c r="G11" t="n">
-        <v>3.654982546874755e-05</v>
+        <v>2.560502181676876e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008133398682102578</v>
+        <v>0.000866999617184265</v>
       </c>
       <c r="I11" t="n">
-        <v>1.392297404638075e-05</v>
+        <v>2.825782915104892e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00021052842950073</v>
+        <v>1.236893940308608e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001122257017735554</v>
+        <v>7.597361159095484e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003081946043968498</v>
+        <v>0.0001262433345546861</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006045645165633487</v>
+        <v>0.001600156924078659</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000055278178934</v>
+        <v>1.000003872519114</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006303020796545266</v>
+        <v>0.001668278917118164</v>
       </c>
       <c r="P11" t="n">
-        <v>102.4336682938335</v>
+        <v>107.7506143079861</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.4075771134297</v>
+        <v>157.7245231275824</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999962928977734</v>
+        <v>0.9999972087668001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991264812265228</v>
+        <v>0.9990694831891036</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999656877370845</v>
+        <v>0.9999978298520761</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998405835818328</v>
+        <v>0.9999853619761866</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999884920013265</v>
+        <v>0.9999934084167574</v>
       </c>
       <c r="G12" t="n">
-        <v>3.460417205550273e-05</v>
+        <v>2.605493671184587e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008153914319982401</v>
+        <v>0.0008685965980044756</v>
       </c>
       <c r="I12" t="n">
-        <v>1.359264970511271e-05</v>
+        <v>2.520186162781659e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001977611514441423</v>
+        <v>1.277854250701417e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001056769005746275</v>
+        <v>7.649364334897915e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003031149133481552</v>
+        <v>0.0001271036248916722</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005882531092608243</v>
+        <v>0.001614154165866627</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000052335560846</v>
+        <v>1.000003940564518</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006132962619738658</v>
+        <v>0.00168287205046733</v>
       </c>
       <c r="P12" t="n">
-        <v>102.5430726070619</v>
+        <v>107.7157767832431</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.5169814266581</v>
+        <v>157.6896856028393</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999651281190821</v>
+        <v>0.9999971324281514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991238930019628</v>
+        <v>0.9990675810061315</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999665121109411</v>
+        <v>0.9999980657410509</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998515937763819</v>
+        <v>0.9999847813881185</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998925347408364</v>
+        <v>0.9999933080706077</v>
       </c>
       <c r="G13" t="n">
-        <v>3.255137013817036e-05</v>
+        <v>2.676752448800317e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008178074260151659</v>
+        <v>0.000870372202312774</v>
       </c>
       <c r="I13" t="n">
-        <v>1.326607768370079e-05</v>
+        <v>2.246249016084984e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000184102653927526</v>
+        <v>1.328537795158617e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>9.868436580561337e-05</v>
+        <v>7.765813483835577e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000298634395984682</v>
+        <v>0.0001279176933671361</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00570538080571055</v>
+        <v>0.001636078374895383</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000049230890708</v>
+        <v>1.000004048336727</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005948270678376081</v>
+        <v>0.001705729618463809</v>
       </c>
       <c r="P13" t="n">
-        <v>102.6653821937141</v>
+        <v>107.6618125421352</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.6392910133103</v>
+        <v>157.6357213617314</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999674273903866</v>
+        <v>0.9999970324938664</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991208670561547</v>
+        <v>0.9990654306913324</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999673090655824</v>
+        <v>0.9999982494727772</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998633026922127</v>
+        <v>0.999984159537863</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999006155103063</v>
+        <v>0.9999931661075731</v>
       </c>
       <c r="G14" t="n">
-        <v>3.040510130180051e-05</v>
+        <v>2.770036717206417e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008206320136033359</v>
+        <v>0.0008723794267898036</v>
       </c>
       <c r="I14" t="n">
-        <v>1.295036766199006e-05</v>
+        <v>2.032881922870726e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001695773703747345</v>
+        <v>1.382823401086277e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>9.126386901836231e-05</v>
+        <v>7.930557966866751e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002965199362365837</v>
+        <v>0.0001288260812232536</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005514082090593186</v>
+        <v>0.001664342728288383</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000045984860631</v>
+        <v>1.000004189420424</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005748827980913239</v>
+        <v>0.001735197243896026</v>
       </c>
       <c r="P14" t="n">
-        <v>102.8018003152993</v>
+        <v>107.5932999650874</v>
       </c>
       <c r="Q14" t="n">
-        <v>152.7757091348956</v>
+        <v>157.5672087846836</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999698095411612</v>
+        <v>0.9999968908861595</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991173006537505</v>
+        <v>0.9990630630818268</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999680198406929</v>
+        <v>0.9999983702146267</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998756961999786</v>
+        <v>0.999983409600342</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999091401034742</v>
+        <v>0.9999929444503378</v>
       </c>
       <c r="G15" t="n">
-        <v>2.818146811803713e-05</v>
+        <v>2.902221295822144e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008239610937006923</v>
+        <v>0.0008745894863371933</v>
       </c>
       <c r="I15" t="n">
-        <v>1.26687972764937e-05</v>
+        <v>1.892664781426788e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001542028286906858</v>
+        <v>1.448290629534627e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>8.343581298358975e-05</v>
+        <v>8.187785538386529e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002941381734358505</v>
+        <v>0.0001333115071026576</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005308622054548348</v>
+        <v>0.001703590706661123</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000042621824243</v>
+        <v>1.000004389337187</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005534621085773067</v>
+        <v>0.00177611608996261</v>
       </c>
       <c r="P15" t="n">
-        <v>102.9536919099573</v>
+        <v>107.500068300192</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.9276007295535</v>
+        <v>157.4739771197883</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999972236577791</v>
+        <v>0.9999966959733244</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991130953456598</v>
+        <v>0.9990604077438816</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999968622228256</v>
+        <v>0.9999984047197488</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998886729649804</v>
+        <v>0.9999824860280638</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999180352829059</v>
+        <v>0.9999926143356465</v>
       </c>
       <c r="G16" t="n">
-        <v>2.591593595873149e-05</v>
+        <v>3.084163871628769e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008278865642116027</v>
+        <v>0.0008770681277531197</v>
       </c>
       <c r="I16" t="n">
-        <v>1.243016413383661e-05</v>
+        <v>1.852594088407749e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001381047378021972</v>
+        <v>1.528915635790894e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>7.526745096801691e-05</v>
+        <v>8.570875223158346e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002914594668779138</v>
+        <v>0.0001380585909976675</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005090769682349761</v>
+        <v>0.001756178769837732</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000039195419589</v>
+        <v>1.000004664508248</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005307494287073405</v>
+        <v>0.001830942935860945</v>
       </c>
       <c r="P16" t="n">
-        <v>103.1213049809778</v>
+        <v>107.3784599352169</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.0952138005741</v>
+        <v>157.3523687548132</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999746587984594</v>
+        <v>0.9999964341743941</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991081166992288</v>
+        <v>0.9990574684939638</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999690380087185</v>
+        <v>0.9999983187077655</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999020951765454</v>
+        <v>0.9999813598307074</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999271910916863</v>
+        <v>0.9999921477071512</v>
       </c>
       <c r="G17" t="n">
-        <v>2.365489928798205e-05</v>
+        <v>3.328541681498936e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008325339121176755</v>
+        <v>0.0008798117885332488</v>
       </c>
       <c r="I17" t="n">
-        <v>1.226545456061197e-05</v>
+        <v>1.952479542229091e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001214540562441884</v>
+        <v>1.627229185314794e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>6.68597554024002e-05</v>
+        <v>9.112385697688514e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002884588251662577</v>
+        <v>0.0001430947738109995</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004863630258148953</v>
+        <v>0.001824429138524962</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00003577581394</v>
+        <v>1.000005034106738</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005070685067340941</v>
+        <v>0.001902098864040931</v>
       </c>
       <c r="P17" t="n">
-        <v>103.3038806128528</v>
+        <v>107.2259525667532</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.277789432449</v>
+        <v>157.1998613863494</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999770205874804</v>
+        <v>0.9999960961385473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991022169881021</v>
+        <v>0.9990541858875213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999691418209056</v>
+        <v>0.9999980723314975</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999158392255058</v>
+        <v>0.9999800330701211</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999364969970894</v>
+        <v>0.999991525402657</v>
       </c>
       <c r="G18" t="n">
-        <v>2.145027290743322e-05</v>
+        <v>3.644083306311143e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008380410334870953</v>
+        <v>0.0008828759575576583</v>
       </c>
       <c r="I18" t="n">
-        <v>1.222432982637944e-05</v>
+        <v>2.238595550546157e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000104404125132016</v>
+        <v>1.743051285101778e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>5.831422747919771e-05</v>
+        <v>9.83455420078197e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002856260046992803</v>
+        <v>0.0001496282489679021</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004631443933314234</v>
+        <v>0.001908948219913558</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000032441523557</v>
+        <v>1.000005511333816</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004828614089966056</v>
+        <v>0.001990216097702857</v>
       </c>
       <c r="P18" t="n">
-        <v>103.4995463794278</v>
+        <v>107.0448114352018</v>
       </c>
       <c r="Q18" t="n">
-        <v>153.4734551990241</v>
+        <v>157.018720254798</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999792308408268</v>
+        <v>0.9999956588153053</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990951957035684</v>
+        <v>0.99905054212067</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999688760700415</v>
+        <v>0.999997621795396</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999296172489427</v>
+        <v>0.9999784314346915</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999457461370743</v>
+        <v>0.9999906975583457</v>
       </c>
       <c r="G19" t="n">
-        <v>1.938709842738098e-05</v>
+        <v>4.052305356557565e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008445950944005122</v>
+        <v>0.0008862772539703812</v>
       </c>
       <c r="I19" t="n">
-        <v>1.232960584425591e-05</v>
+        <v>2.761801750610896e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>8.731204759791288e-05</v>
+        <v>1.882869109419006e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>4.98208267210844e-05</v>
+        <v>1.079524642240048e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000286164917755575</v>
+        <v>0.0001595943268290881</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004403078289944545</v>
+        <v>0.00201303386870603</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000029321165891</v>
+        <v>1.000006128731334</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004590526448376068</v>
+        <v>0.002098732888051421</v>
       </c>
       <c r="P19" t="n">
-        <v>103.7018054852833</v>
+        <v>106.8324492299018</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.6757143048795</v>
+        <v>156.806358049498</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999811647034351</v>
+        <v>0.9999951104005309</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990868266319297</v>
+        <v>0.9990465191296242</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999680315495637</v>
+        <v>0.9999969024685493</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999430473117349</v>
+        <v>0.9999765690279671</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999546354056388</v>
+        <v>0.9999896371405697</v>
       </c>
       <c r="G20" t="n">
-        <v>1.758192256932429e-05</v>
+        <v>4.564226475744568e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008524072554154207</v>
+        <v>0.0008900325395228118</v>
       </c>
       <c r="I20" t="n">
-        <v>1.266415885964606e-05</v>
+        <v>3.59715382288789e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>7.065162634213904e-05</v>
+        <v>2.045451462038286e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>4.165789260089254e-05</v>
+        <v>1.202583422163537e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002866758545635327</v>
+        <v>0.0001692535469527446</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004193080319922847</v>
+        <v>0.002136405035508147</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000026591006915</v>
+        <v>1.000006902963956</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004371588430014821</v>
+        <v>0.002227356220837827</v>
       </c>
       <c r="P20" t="n">
-        <v>103.8972786210385</v>
+        <v>106.5945230099807</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.8711874406347</v>
+        <v>156.568431829577</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999982678309338</v>
+        <v>0.9999944145368129</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990768367588223</v>
+        <v>0.9990420616937516</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999663761373346</v>
+        <v>0.9999958497224954</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999955709945225</v>
+        <v>0.9999743288989479</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999628314016679</v>
+        <v>0.9999882678238932</v>
       </c>
       <c r="G21" t="n">
-        <v>1.616903789862727e-05</v>
+        <v>5.213784711659914e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008617323634563915</v>
+        <v>0.0008941933602509557</v>
       </c>
       <c r="I21" t="n">
-        <v>1.331994302060157e-05</v>
+        <v>4.819704603210344e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>5.494322561336099e-05</v>
+        <v>2.241007803914659e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.413158431698128e-05</v>
+        <v>1.361489132117847e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002880700025813909</v>
+        <v>0.0001791961788594056</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004021074221974431</v>
+        <v>0.002283371347735605</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000024454151523</v>
+        <v>1.000007885359794</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004192259676375032</v>
+        <v>0.002380579193239014</v>
       </c>
       <c r="P21" t="n">
-        <v>104.0648247706053</v>
+        <v>106.3284090674855</v>
       </c>
       <c r="Q21" t="n">
-        <v>154.0387335902015</v>
+        <v>156.3023178870817</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999835592424077</v>
+        <v>0.9999935136573619</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990648745683208</v>
+        <v>0.9990371892537389</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999636485234349</v>
+        <v>0.9999943946412758</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999669071974729</v>
+        <v>0.9999714619093597</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999698063248547</v>
+        <v>0.9999864614185516</v>
       </c>
       <c r="G22" t="n">
-        <v>1.534672554661396e-05</v>
+        <v>6.054716135113316e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008728985432101185</v>
+        <v>0.0008987415691275091</v>
       </c>
       <c r="I22" t="n">
-        <v>1.440047508466157e-05</v>
+        <v>6.509485984051351e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>4.105267705493614e-05</v>
+        <v>2.491287136605402e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.772657606979885e-05</v>
+        <v>1.571117867505268e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002908184253574072</v>
+        <v>0.0001902438038864167</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003917489699618106</v>
+        <v>0.002460633279282656</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000023210481307</v>
+        <v>1.000009157189607</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004084265346452476</v>
+        <v>0.002565387532194807</v>
       </c>
       <c r="P22" t="n">
-        <v>104.1692168522515</v>
+        <v>106.0293461262589</v>
       </c>
       <c r="Q22" t="n">
-        <v>154.1431256718477</v>
+        <v>156.0032549458552</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999835471801761</v>
+        <v>0.9999923819410411</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990505200061975</v>
+        <v>0.9990318978365137</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999595070780122</v>
+        <v>0.9999924100353167</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999757948210086</v>
+        <v>0.9999680286063363</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999749162337751</v>
+        <v>0.999984177058035</v>
       </c>
       <c r="G23" t="n">
-        <v>1.53579851102744e-05</v>
+        <v>7.111123644008101e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000886297896859732</v>
+        <v>0.00090368087484081</v>
       </c>
       <c r="I23" t="n">
-        <v>1.604109019191539e-05</v>
+        <v>8.814202829223376e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>3.002729658133426e-05</v>
+        <v>2.791003882421665e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.303419338662483e-05</v>
+        <v>1.836212082672001e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002937737068764909</v>
+        <v>0.000204320222219986</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003918926525245708</v>
+        <v>0.002666669016583817</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00002322751034</v>
+        <v>1.000010754906765</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004085763340721684</v>
+        <v>0.002780194637385652</v>
       </c>
       <c r="P23" t="n">
-        <v>104.1677500331316</v>
+        <v>105.7077005790075</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.1416588527279</v>
+        <v>155.6816093986037</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999822940378154</v>
+        <v>0.9999909364989513</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990332490839656</v>
+        <v>0.999026301051018</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999534748693841</v>
+        <v>0.9999897024288399</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999812126582206</v>
+        <v>0.9999638321826304</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999772746190786</v>
+        <v>0.9999812439115868</v>
       </c>
       <c r="G24" t="n">
-        <v>1.652773849741558e-05</v>
+        <v>8.460380387209273e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009024195446573222</v>
+        <v>0.000908905228430621</v>
       </c>
       <c r="I24" t="n">
-        <v>1.843072269825945e-05</v>
+        <v>1.195853796962179e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>2.330629671382739e-05</v>
+        <v>3.157338705931399e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.086850970604342e-05</v>
+        <v>2.176596251446789e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002969451430269785</v>
+        <v>0.0002200107879734676</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004065432141533736</v>
+        <v>0.002908673303623023</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000024996652496</v>
+        <v>1.000012795530892</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004238506004403527</v>
+        <v>0.003032501547942053</v>
       </c>
       <c r="P24" t="n">
-        <v>104.0209409350091</v>
+        <v>105.3602328446597</v>
       </c>
       <c r="Q24" t="n">
-        <v>153.9948497546053</v>
+        <v>155.3341416642559</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999793470567662</v>
+        <v>0.9999890991555115</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990124831242028</v>
+        <v>0.9990204069587051</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999447421597114</v>
+        <v>0.9999861374305701</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999816826663632</v>
+        <v>0.9999587590641953</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999757073759616</v>
+        <v>0.9999775520178036</v>
       </c>
       <c r="G25" t="n">
-        <v>1.927861594939887e-05</v>
+        <v>1.017545983827504e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009218036565756646</v>
+        <v>0.0009144071048838986</v>
       </c>
       <c r="I25" t="n">
-        <v>2.189014663223967e-05</v>
+        <v>1.609855958331946e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>2.27232366217534e-05</v>
+        <v>3.600206270521931e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>2.230769474373866e-05</v>
+        <v>2.605031114426939e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003004199657263109</v>
+        <v>0.0002358729254316334</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004390742072747939</v>
+        <v>0.003189899659593548</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00002915709633</v>
+        <v>1.000015389427513</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004577665052873913</v>
+        <v>0.003325700292105055</v>
       </c>
       <c r="P25" t="n">
-        <v>103.7130281164312</v>
+        <v>104.9910632694119</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.6869369360274</v>
+        <v>154.9649720890081</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.99997413035534</v>
+        <v>0.9999866536787512</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989874865655402</v>
+        <v>0.9990141480956137</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999324733973947</v>
+        <v>0.999981292093827</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999752385230589</v>
+        <v>0.9999523769326707</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999687093892885</v>
+        <v>0.9999727271473281</v>
       </c>
       <c r="G26" t="n">
-        <v>2.41481777439371e-05</v>
+        <v>1.24582050500004e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009451368468651308</v>
+        <v>0.000920249478847387</v>
       </c>
       <c r="I26" t="n">
-        <v>2.67503620280075e-05</v>
+        <v>2.172543435951774e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>3.071740193151756e-05</v>
+        <v>4.157346633269318e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.873388197976253e-05</v>
+        <v>3.164945034610546e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003263174709059319</v>
+        <v>0.0002576799069979908</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004914079541881378</v>
+        <v>0.003529618258395715</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000036521851285</v>
+        <v>1.000018841865292</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00512328208152627</v>
+        <v>0.003679881414972675</v>
       </c>
       <c r="P26" t="n">
-        <v>103.2626032729004</v>
+        <v>104.586262223929</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.2365120924967</v>
+        <v>154.5601710435252</v>
       </c>
     </row>
   </sheetData>
